--- a/fastqFiles/fastq_0769.xlsx
+++ b/fastqFiles/fastq_0769.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A37295-1CA9-6549-803D-7A6CC05311FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FDE715-2845-0642-A8A3-12EC274C1FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24220" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>libraryDate</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B22 E2:E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -512,7 +515,7 @@
         <v>769</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -532,7 +535,7 @@
         <v>769</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -552,7 +555,7 @@
         <v>769</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -572,7 +575,7 @@
         <v>769</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -592,7 +595,7 @@
         <v>769</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -612,7 +615,7 @@
         <v>769</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -632,7 +635,7 @@
         <v>769</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -652,7 +655,7 @@
         <v>769</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -672,7 +675,7 @@
         <v>769</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -692,7 +695,7 @@
         <v>769</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -712,7 +715,7 @@
         <v>769</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -732,7 +735,7 @@
         <v>769</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -752,7 +755,7 @@
         <v>769</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -772,7 +775,7 @@
         <v>769</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -792,7 +795,7 @@
         <v>769</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -812,7 +815,7 @@
         <v>769</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -832,7 +835,7 @@
         <v>769</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -852,7 +855,7 @@
         <v>769</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -872,7 +875,7 @@
         <v>769</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -892,7 +895,7 @@
         <v>769</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -912,7 +915,7 @@
         <v>769</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>

--- a/fastqFiles/fastq_0769.xlsx
+++ b/fastqFiles/fastq_0769.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">

--- a/fastqFiles/fastq_0769.xlsx
+++ b/fastqFiles/fastq_0769.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">run_769_s_2_withindex_sequence_GCAGGGG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4]</t>
   </si>
   <si>
     <t xml:space="preserve">run_769_s_2_withindex_sequence_AGATACT.fastq.gz</t>
@@ -219,12 +222,14 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T23" activeCellId="0" sqref="T23"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="48.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,11 +403,11 @@
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -419,16 +424,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
@@ -445,13 +450,13 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>4</v>
+      <c r="I10" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -514,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -537,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,7 +622,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
